--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1291.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1291.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8566702322261769</v>
+        <v>1.128047585487366</v>
       </c>
       <c r="B1">
-        <v>1.691120907535821</v>
+        <v>2.279197216033936</v>
       </c>
       <c r="C1">
-        <v>5.591616199721358</v>
+        <v>10.95813369750977</v>
       </c>
       <c r="D1">
-        <v>3.274720729967277</v>
+        <v>2.010145902633667</v>
       </c>
       <c r="E1">
-        <v>1.440432729476171</v>
+        <v>1.283152103424072</v>
       </c>
     </row>
   </sheetData>
